--- a/biology/Zoologie/Bishopella/Bishopella.xlsx
+++ b/biology/Zoologie/Bishopella/Bishopella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bishopella est un genre d'opilions laniatores de la famille des Phalangodidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis[1]. Elles se rencontrent en Caroline du Nord, en Caroline du Sud, en Géorgie, en Alabama et au Tennessee.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Caroline du Nord, en Caroline du Sud, en Géorgie, en Alabama et au Tennessee.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (08/10/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (08/10/2021) :
 Bishopella jonesi Goodnight &amp; Goodnight, 1942
 Bishopella laciniosa (Crosby &amp; Bishop, 1924)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Sherman Chauncey Bishop[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Sherman Chauncey Bishop.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roewer, 1927 : « Weitere Weberknechte I. 1. Ergänzung der: "Weberknechte der Erde", 1923. » Abhandlungen des Naturwissenschaftlichen Vereins zu Bremen, vol. 26, p. 261–402.</t>
         </is>
